--- a/500all/speech_level/speeches_CHRG-114hhrg94747.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94747.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman.    And, again, to our panel, thank you for being before us.    Obviously, the Indo-Asia-Pacific arena is an incredibly important one to our United States and to security in our world. I am always a little amused with the fact that everybody talks about pivoting towards that direction. I am a Californian. We have always been on the Pacific.    So, to a large extent we have had the opportunity to look across that Pacific and work with the nations and accept a lot of people who are originally from those countries to our California. So I think that we are well-positioned, in particular, as Californians, with respect to understanding and having ties to those regions.    The collective security of our world is not only one of defense and high-tech solutions to some of that, but it is also about culture and the economy. And so I believe that we should continue to work in the many myriad of ways to--as we look towards that region. Maintaining a significant U.S. military capability advantage is clearly a top priority for us from a national security perspective. And it is entirely appropriate to take a look at the capabilities, especially with high technology that these countries in that region are doing.    Again, we should not presuppose, I think, that there is malice involved when somebody is beefing up their military or working towards higher military capabilities. And we shouldn't, I think, presume that conflict is inevitable. Rather, we should be geared toward working together in good faith of preservation of our international order.    And I think that the most significant thing that Congress can do to help bolster the U.S. military's technological edge and to help advance strategic objectives in the Indo-Asia-Pacific region is to eliminate sequestration. And I am talking not just here in the defense committee, but across the Federal board. As I remember Secretary Gates once said, if we don't educate our people, if our economy is not good--and I am paraphrasing, I am not saying directly--then we don't have to worry about our military because it is about our economy and about our people.    So I am looking forward to hearing the testimony today. And, Mr. Chairman, I would like to submit Mr. Smith's statement for the record. Thank you.    The Chairman. Thank you. Without objection, it is so ordered.    [The prepared statement of Mr. Smith can be found in the Appendix on page 41.]    The Chairman. And without objection, the witnesses' complete written statements will be made part of the record.    We are pleased to have with us today the Honorable Christine Wormuth, Under Secretary of Defense for Policy; Admiral Samuel Locklear, Commander of U.S. Pacific Command; and General Curtis Scaparrotti, the Commander of U.S. Forces Korea.    Again, thank you all for being with us. As I said, your complete statements will be made part of the record. And we would appreciate you summarizing in your opening comments before we turn to questions.    Ms. Wormuth.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Wormuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Wormuth. Thank you very much, Chairman Thornberry and distinguished members of the committee, for having us here today. We are looking forward to the conversation. And I am sending my best wishes to Ranking Member Smith for a speedy recovery. I know he is not enjoying that process.    The Chairman. Madam, excuse me. Would you mind getting that microphone right in front of you?</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t xml:space="preserve">    Secretary Wormuth. It is a pleasure to be here to talk with you about certainly a top priority for Secretary Carter and myself, which is our rebalance to Asia-Pacific.    I am also very pleased to be here alongside Admiral Locklear and General Scaparrotti. We work closely together on a lot of different issues. They are doing a tremendous job, and the men and women who are out there working in Pacific Command and at U.S. Forces Korea are really the day-to-day face of our rebalance for a lot of countries in the region. So we really appreciate the work that they do.    Both Secretary Carter and I have recently come back from Asia, different parts of the region, but I think we both heard in a very resounding way a lot of support from the countries out there for the rebalance that we have undertaken, and also a lot of desire to have even greater U.S. leadership and engagement with the countries that are there.    In the past 70 years it has obviously been a time of tremendous change and opportunity for the Asia-Pacific region. As nations there rise and become more prosperous it has created a lot of opportunity. At the same time, the dynamism in the region has also created a much more complex security environment in which we are now operating.    In particular, China's very rapid military modernization, its opaque defense budget, the--its actions in space and cyberspace, and its behavior in places like the East and South China Seas raise a number of serious questions for us. Though China's expanding interests are a natural part of its rise, it does continue to pursue activities and to make investments that lead many countries in the region, including the United States, to have some serious questions about its long-term intentions.    China's behavior in the maritime domain, I think, in particular, has created significant friction for its neighbors. The government's efforts to incrementally advance its claims in the East and South China Sea, and its extensive land reclamation activities, particularly the prospect of further militarizing those outposts, are very concerning to us. We have urged China to show restraint and to refrain from further activities that undermine regional trust.    We also have continued to urge China to clarify the meaning of its ambiguous ``nine-dash line'' claim as a starting point as a way to start reducing tensions and provide greater transparency to countries in the region.    While the United States and China are not allies, we also don't have to be adversaries. I think both of us, both the United States and China recognize that a constructive U.S.-China relationship is essential for global peace and prosperity. We are therefore not only talking to China about actions they undertake that concern us, but we are also talking to them and undertaking activities to build transparency and to improve understanding, particularly through our military-to-military engagement with the PLA [People's Liberation Army].    We also face a number of other challenges, obviously, in the region. Particularly I think of greatest concern to us in DOD [Department of Defense] is North Korea's dangerous pursuit of ballistic missiles and its weapons of mass destruction program. North Korea, as you all know, has repeatedly demonstrated its willingness to use provocations as a means to achieve its ends. And just in the last year, we saw a very significant cyber attack on Sony Pictures Entertainment.    There are also other challenges in the region that are magnified by a growing range of nontraditional threats, such as the increased flow of foreign fighters both to and from Asia, the trafficking of illegal goods and people, and devastating natural disasters such as the cyclone we saw last month in Vanuatu.    So in response to these shifting dynamics, DOD has consistently worked to implement President Obama's whole-of-government strategy towards rebalancing in the Asia-Pacific. One of the most important pieces of the administration's work in the area of the rebalance is to finalize the Trans-Pacific Partnership [TPP]. Our military strength ultimately rests on the foundation of our vibrant and growing economy, so we believe strongly that TPP is not just part of our economic agenda, but is also a very important part of our national security agenda. And I would urge Congress to pass Trade Promotion Authority and allow negotiators to conclude this very important agreement.    In DOD, we are really focused in terms of the rebalance on a couple of key lines of effort. First is strengthening our security relationships with allies and partners in the region. In Japan, for example, we are very close to completing a historic update of the defense guidelines, which really wouldn't have been possible a decade ago. We are also working with the Republic of Korea to develop a comprehensive set of alliance capabilities to counter the North Korean threat. And in Australia and the Philippines, last year we signed important, groundbreaking posture agreements that will give us enhanced access for our forces and also allow us a lot of new, combined training opportunities for our partners in Australia and the Philippines.    Our strong friendships in the region also go beyond traditional alliances to some of our new relationships, particularly in South and Southeast Asia. In addition to our very strong partnership with Singapore, where I just visited a couple weeks ago, we also are strengthening our relationships with countries like Indonesia, Malaysia, and Vietnam. And finally, we are investing, of course, in our partnership with ASEAN [Association of Southeast Asian Nations], which is really leading the way in terms of trying to build a more robust security architecture in the region.    And lastly, in terms of relationships, the U.S.-India relationship is a very important and very exciting partnership. As you all know, just this January, President Obama and Prime Minister Modi signed a Joint Vision Statement. We also completed the first update in 10 years to our Defense Framework with India, and we concluded four ``pathfinder'' projects for technology development with India under the Defense Trade and Technology Initiative.    In tandem with our efforts to modernize relationships in the Pacific, the Department is also updating our forward presence. And this isn't just about putting more assets into the region. It is also about using those assets in new ways. For example, we have developed a more distributed model for our Marine Corps that is reducing our concentrated presence in Okinawa through relocating marines to Australia, Guam, Hawaii, and mainland Japan.    The Navy is also working more on its rotational presence concept to include being on track to have our goal of having four Littoral Combat Ships [LCS] rotating through Singapore by 2017. We have had two of our LCS ships go to Singapore already. And the Army will be initiating its first rotational deployment of a brigade combat team to the Korean Peninsula later this spring.    Finally, and I think going very much to the issue of the technology concerns that the committee is interested in, we are also bringing our best capabilities to the Asia-Pacific region. We are making significant investments to sustain our American technological edge into the future in the air, land, sea, and undersea domains. We are investing in precision munitions that will increase our ability to strike adversaries from greater standoff distances and we are working on new capabilities to allow us to continue to operate freely in space and cyberspace.    All of these efforts demonstrate the seriousness of our Department's commitment to protecting U.S. military primacy in the Asia-Pacific theater. And our focus on technology is really the impetus for our Defense Innovation Initiative, which is a long-term, comprehensive effort to make sure that we enhance our military competitive edge even as we face budget constraints.    The Department's rebalance efforts, as well those of our interagency colleagues, are part of a long-term project that reflect, I think, the enduring interest the United States has in the Asia-Pacific region. We look forward to continuing to work with Congress on the rebalance. And I look forward to questions. Thank you.    [The prepared statement of Secretary Wormuth can be found in the Appendix on page 42.]    The Chairman. Thank you.    Admiral.</t>
   </si>
   <si>
-    <t>Locklear</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Locklear. Mr. Chairman, Congresswoman Sanchez, and distinguished members of the committee, thank you for the opportunity to appear before you today with Secretary Wormuth and General Scaparrotti, who I work very closely with both of them. Before we begin I would like to ask that my written testimony be submitted for the record.    For more than 3 years I have had the honor and the privilege of leading the exceptional men and women, military and civilian, of the United States Pacific Command [USPACOM]. These volunteers are skilled professionals dedicated to defense of our Nation. They are serving as superb ambassadors to represent the values and strengths that make our Nation what it is: great. I want to go on record to formally thank our service members, civilians, and their families for their sacrifices.    USPACOM continues to strengthen alliances and partnerships, maintain an assured presence in the region, and demonstrate U.S. intent and resolve to safeguard our U.S. national interest. When I spoke to you last year I highlighted my concern for several issues that could challenge the security environment across the Indo-Asia-Pacific. Those challenges included responding to humanitarian assistance and disaster relief events; dealing with an increasingly dangerous and unpredictable North Korea, a challenge that General Scaparrotti and I remain aligned in addressing; a continued escalation of complex territorial disputes; increasing regional transnational threats; and the complexity associated with China's continuous rise.    In the past years these challenges have not eased. They will not go away soon. But the Asia rebalance strategy is and has taken hold. It is achieving its intended goals.    However, the greatest challenge remains the continued physical uncertainty resulting from sequestration. If the Budget Control Act remains in force, the greatest challenge in the Indo-Asia-Pacific will be dealing with the consequences to the security of our national interest as we respond to a rapidly changing world. I echo the Secretary of Defense, the Chairman of the Joint Chiefs, and the service chiefs' testimony before Congress. Our Nation is being forced into a resource-driven national security strategy instead of one properly resourced and driven by our enduring national interest.    In the Indo-Asia-Pacific we are accepting more risk, not less. Sequestration will force harmful reductions in force size, structure, and readiness that will reduce my ability to manage crisis space and provide options to the President and the Congress, and diminishes United States prestige and credibility in the region and around the globe.    In the last year, at great expense to the readiness of the surge forces' position in the continental United States, USPACOM has maintained its forward forces, focused on protecting the homeland, deterring aggressors, such as North Korea, strengthening alliances and partnerships, and developing the concepts and capabilities required for us to remain dominant in a world that is growing in complexity with threats that continually increase against a seemingly unending stream of constraints.    Without adequate resources, we will be forced to make difficult choices today that will have strategic consequences to our future.    I would like to thank the committee for your continued interest and support. I look forward to your questions.    [The prepared statement of Admiral Locklear can be found in the Appendix on page 49.]    The Chairman. Thank you, sir.    General.    General Scaparrotti. Mr. Chairman, Congresswoman Sanchez, and distinguished members of the committee, I am honored to testify today as the Commander of the United Nations Command, Combined Forces Command, and United States Forces Korea, and also alongside Admiral Locklear and Under Secretary Wormuth. On behalf of the service members, civilians, contractors, and their families who serve our great Nation in the Republic of Korea, one of our most important allies, thank you for your support. I have prepared some brief opening remarks and I thank you for submitting them to the record.    Last year, I testified that the combined and joint forces of the United States and the Republic of Korea were capable and ready to deter, and if necessary, respond to North Korean threats and actions. Due to our accomplishments in 2014, I report to you that our strong alliance is more capable of addressing the rapidly evolving and increasingly asymmetric North Korean threat.    In recent years, North Korea has aggressively developed and utilized asymmetric capabilities, such as cyber warfare, nuclear weapons, and ballistic missiles to advance its interests. To put this in perspective over time, in 2012, my predecessor noted North Korea's advancements in cyber and nuclear capabilities during his opening statement to this committee. A year later, North Korea conducted cyber attacks on South Korea's banks and broadcasting stations. And in 2014, they boldly projected their cyber capabilities against Sony Pictures in the United States, in an effort to inflict economic damage and suppress free speech.    This example represents a trend that is persistent across several North Korean asymmetric capabilities. My top concern is that we will have little to no warning of a North Korean asymmetric provocation, which could start a cycle of action and counteraction, leading to unintended escalation. This underscores the need for the alliance to maintain a high level of readiness and vigilance.    Last year, the alliance took significant steps in improving its capabilities and capacities that deter aggression and to reduce its operational risk. But our work is not done. In 2015, we will maintain this momentum by focusing on my top priority, sustaining and strengthening the alliance, with an emphasis on our combined readiness. This includes ensuring the rapid flow of ready forces into Korea in the early phases of hostilities and improving our ISR [intelligence, surveillance, and reconnaissance] capabilities and critical munitions.    Based on the national security strategies of both our nations, the United States will continue to be a steadfast strategic partner to South Korea, and South Korea is poised to be a long-lasting and important ally to America. Our enduring military partnership in South Korea is the preeminent example of bilateral security cooperation and a visible element of American leadership and our Nation's commitment to the Asia-Pacific region.    The men and women serving on freedom's frontier, defending the Republic of Korea remain thankful for this committee's unwavering support in prioritizing resources that enable us to defend our national interests in Asia, while advancing universal values and international order.    I am extremely proud of our service members, civilians, and their families serving in the Republic of Korea, who never lose sight of the fact that they are at freedom's frontier, defending one of our most important allies and vital American interests.    Thank you, and I look forward to your questions.    [The prepared statement of General Scaparrotti can be found in the Appendix on page 81.]    The Chairman. Thank you.    I want to ask, Admiral and General, each of you, about this issue of technological superiority. I mentioned Under Secretary Kendall has testified that our technological superiority that we have enjoyed for years is eroding, and we have had many other witnesses support that. There are a variety of factors that have played into it, what we have done to ourselves with budget cuts, a procurement process that cannot keep up with changes in technology, the fact that some of our competitors have stolen incredible amounts of information from us and benefitted from it. I mean, all of these things, and probably others, contribute to it.    But, each of you are responsible for dealing with the world today as we find it and being prepared with plans and contingencies and using the forces that we have today. So I would be interested, as a combatant commander, as a commander responsible for a key area of the world, are you concerned about these trends in technology and our ability to keep up? Are there some areas that concern you more than others given your area of responsibility? And are there suggestions you have about how we, the United States, could and should adjust to meet these changes? Kind of a broad picture of what it is like from your end, as warfighting commanders.    Admiral.</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>400209</t>
   </si>
   <si>
-    <t>Walter B. Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much.    And, I want to--Madam Secretary, I took down some notes, what you had said in your prepared remarks, and also what you said today: We urge the Chinese, actions that concern us, we bring this to the Chinese's attention. I am one of the individuals in the Congress that for years have been speaking out publicly back in my district, the Third District of North Carolina, about the growing debt of our Nation because I believe sincerely that that is the biggest threat to our national security, is the growing debt.    Admiral, that is why we passed the bill--I did not vote for it, to be honest about it--the sequestration.    And then I see we continue to play a shell game with the budget and with the American people's money and find ways to continue to pump up the needs for our military.    I believe in honesty in budgeting. I don't believe in dishonesty, but, anyway, in budgeting. But I am for honesty in budgeting.    This is my question to you. I have long thought, maybe it is because I was raised in eastern North Carolina, that if you owe someone money and you can't pay them back, they just don't have the same respect for you. And I look at the fact that President Bush raised the debt ceiling 7 out of 8 years that he was the President. Mr. Obama has raised the debt ceiling 7 out of 6 years that he has been the President. And you know, when we raise the debt ceiling what we are saying to the world is we can't pay our bills; that we have to sell our financial instruments and somehow finance our debt. Okay.    The Chinese buy a lot of our debt. So I really would like to know, when our representatives of our government, whether it be military or non-military, are sitting there facing the Chinese, if it is a respect, because we continue to have to borrow money from the Chinese to pay our bills. And they see all of the news articles of how we are spending billions and billions in Afghanistan, that much of it, according to John Sopko, is wasted. And yet, we are taking the billions and billions that we are spending overseas that is wasted, taken away from rebuild--from building our military, which needs to be rebuilt.    And I get to a point that I just don't understand an administration--and I would say this if it was a Republican administration--how in the world can we continue to play this game of spending, spending, spending, and borrow, borrow, borrow, and then we think we have got equal placement to talk to the Chinese about we are concerned about this and we urge you to do that. Do they really listen to us?</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses for your testimony today. In particular, Admiral Locklear, I want to thank you for your leadership at PACOM [Pacific Command] for the last 3 years. I thank you for your service and I wish you all the best of luck in your future endeavors.    If I could start with you, Admiral. You mentioned China's aggressive shipbuilding program in addition to their significant advances in electronic warfare capabilities, Admiral. How do our forces in PACOM compare in those aspects? And where do you believe improvements need to be made, besides continued and sustained investment in the U.S. nuclear submarine force, as you mentioned?    I am particularly concerned and interested. I think that the Chinese at this point are--have confidence that they could potentially turn the lights off on our use of cyber capabilities on our fleet and our ability to respond, both figuratively and literally.    So I want to know where you--what your views are and how we stand.</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you.    Madam Secretary, General, Admiral, thank you so much for your service to our country. Thank you for being here today.    We have had a couple of milestones in the last few weeks. One, the Japanese have now exceeded the number of planes they have had to scramble against Chinese and Russian planes since the Cold War, as I understand it. We also had the Office of Naval Intelligence print this report, first time they have done it since 2009, talking about a compelling concern about Chinese activity in the disputed waters off the East and South China Sea.    I also concur with your comments about sequestration as it relates to national defense, although I really question anyone on this committee or the administration that would suggest that we shouldn't remove defense sequestration unless we can also give the EPA [Environmental Protection Agency], the IRS [Internal Revenue Service], and the GSA [General Services Administration] all the money they want or unless we can quench the thirst of every other agency that drinks from every Federal trough. To hold defense sequestration hostage against that would be unconscionable.    My concern today as we talked about it, Admiral Locklear, in this committee, we talked about the high-end technological superiority. But I am also concerned about what we are seeing happen at the lower end. You mentioned, I think correctly, China launched more naval ships than any other country in 2013 and 2014, and they expect the same for 2014 and 2015. But I am also concerned about what they are doing with their Coast Guard. They now have 95 large cutters, 110 small cutters. That is a total of 205. That is 68 ships less than the entire U.S. Navy, and they have more ships in their Coast Guard than Japan, Vietnam, Indonesia, Malaysia, and Singapore have combined.    We don't always rate those as naval ships, but you have seen this picture, I am sure. This picture is of a Chinese Coast Guard vessel. They have labeled on here Tugboat number 25. It is painted white. This is one of their amphibious naval ships. It is number 908. It is painted gray. Other than being painted gray and the number on there, there is virtually no difference, I don't think, between these two ships. And that is something that is really concerning me, because we don't always measure those.    [The pictures referred to were not available at the time of printing.]</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    Secretary Wormuth and Admiral Locklear and General Scaparrotti, I want to thank you for coming today.    And as the representative from Guam, I appreciate, Mr. Chairman, your calling the committee together, for taking time to further examine our posture in the Asia-Pacific region.    Admiral Locklear, I have a question for you. As the ranking member of the Readiness Subcommittee, I would like to focus on training capabilities in the Asia-Pacific region. Our Marines in Okinawa have degraded training capabilities, and the Army and the Air Force have significant degradation of training capabilities elsewhere in the region.    Can you comment on how the Department is looking at improving these capabilities? We are moving forward with a live-fire training range on Guam, but what about larger training exercises and the need for improving training capabilities in the Northern Marianas Islands? I think that the committee has questions about the cost, and I understand PACOM has a handle on many of these matters. So could you answer that for me?</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank each of you for being here today.    I just really have been impressed, Ms. Wormuth, your comments.    And, Admiral, I am just grateful that I have a son who is currently serving in the Navy, and I have got three in the Army.    And my visits, General, to the DMZ [demilitarized zone], again, such extraordinary people that you serve with, and making such a difference, indeed, for the Republic of Korea and their protection. And that is why, as I am thinking about the cyber offensive of North Korea, General, how is that being countered, and, with the efforts that they have made to disrupt the banks of South Korea and other activities? How is this being addressed?    General Scaparrotti. Well, sir, I think, first of all, we are working very closely with our allies as a multinational community in this regard. And we have a very good cyber capability in the United States that is growing as well. This is a domain that we don't necessarily have superiority in. I think there is a lot--there is a lot of simultaneity out there in this domain.    So we are working very hard. I think we stayed ahead of it well, but it will take that kind of effort and resourcing in order to continue to develop our capability. That is about what I would say here. It is difficult to get into that much without, you know, in an open hearing.</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    I will continue along the same topic here, and I think it is important for us to recognize that North Korea remains the most immediate military threat, not to only our interests within the region, but really to the U.S. directly, and important for us to focus on this immediate threat, especially within the context of the greater conversation that is taking place now and seeing how we can prevent Iran from getting to the point of having this nuclear capability.    General Scaparrotti, I am wondering if you can speak to Mr. Wilson's question, but also specifically to the status of ballistic missile defense policy within the region and the level of cooperation that you are getting from our partners there, within the Republic of Korea and Japan specifically.    General Scaparrotti. Well, thank you.    First of all, to the North Korean nuclear capability, I would state it this way, that they claim to have a capability to deliver a nuclear-tipped ballistic missile. They have paraded it, they have shown it to us. But they haven't tested it, as the Under Secretary mentioned, and that is very important in something that is as complex as this. But as a commander, I have to be prudent and assume that they can deliver one and act on that basis.    Secondly, in terms of ballistic missile defense, we bring our best systems to the peninsula. We work very closely with the Republic of Korea. This year, just this funding year, they committed in the last couple of months to upgrade their PAC-2 systems to PAC-3, and they will be doing that over the next couple of years, And we are working closely with them over the next year or so to increase our interoperability and the ability to have a common operating picture.    So I think we are moving in the right direction, given the threat. We have to keep pace with that, we have to continue to keep our focus on that.</t>
   </si>
   <si>
@@ -274,9 +247,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    General Scaparrotti, I know that we are in discussions with South Korea's government about the deployment of a THAAD [Terminal High Altitude Area Defense] battery on the peninsula. Can you tell us why that would be important for the protection of our deployed forces in South Korea to have put on that peninsula?    General Scaparrotti. Well, the employment of a THAAD would give us a high-tier defense. And so, therefore rather--we would have a layered defense and those systems would enhance the capability of our present Patriot systems that are on the peninsula today.</t>
   </si>
   <si>
@@ -316,9 +286,6 @@
     <t xml:space="preserve">    Mr. Forbes. The gentleman yields back.    The gentleman from Hawaii, Mr. Takai, is recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Takai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman. Thank you also for focusing today's hearing on the Asia-Pacific as you know, that is very important for people from Hawaii.    I wanted to welcome our witnesses. Under Secretary, Admiral, and General, thank you very much for coming.    Admiral Locklear, it is my understanding that the Pacific Fleet and the Atlantic Fleet are funded through separate budget offices. Can you speak to what advantages that has and how it supports the geographical combatant commander?</t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Ms. Wormuth, my question is for the admiral and general, but I would like to say I am interested in any language suggestions that would cut this ridiculous appeals process that I think is one of the problems with us fielding the equipment. And some of these games that get played, if you will, from the people who are purchasing the equipment from--that slow down our ability to field the equipment I think is one of the reasons that the other countries are able to catch us, if you will. They don't have to deal with that bureaucratic process. And that is a pretty simple thing I think we could put an end to that would help national security.    Gentlemen, I represent Robins Air Force Base and the airmen and the women that fly and operate the JSTARS [Joint Surveillance Target Attack Radar System] aircraft. Last year we had worked with the Air Force, there was a proposal to retire six of the E-8, since you know they are old aircraft, with old technology, and to begin the recapitalization of a new plane with a more modern radar that would give you more information.    There was a proposal for a business class jet. I understand there has been a new analysis, a demand from the combat commanders, a decision is made to keep the entire fleet operational at this point. I would like for you to speak to the value of the JSTARS, how it benefits each of your missions.    And then the Air Force's analysis of the alternatives for the JSTARS and the recapitalization concluded that a manned aircraft was necessary and absolutely essential. And the Korea Command and Pacific Command both have benefitted from this manned platform and the on-board battle management provided by the JSTARS. And can you discuss the extent to which your command's ISRs or requirements are being met?    General Scaparrotti. Yes, sir. Thank you for that question.    My top priority in terms of my requirements and requests through Department of Defense has been ISR. And specifically that aircraft, the JSTARS, is one that I need greater capability in terms of JSTARS, primarily because it provides us the MTI, Movement Target Indicator, and it allows us to queue, my other assets. So it doesn't work alone, it works in tandem with the other assets that are airborne. And I could use more than I have today.    I appreciate the fact that the Air Force, because of the budgeting, needs to get a newer aircraft, but I appreciate the fact that they are retaining what we have, because even the loss of hours of the one that I have today would make a difference in my indicators and warnings on the peninsula.</t>
   </si>
   <si>
@@ -370,9 +334,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And I want to thank our panel for being here today.    And, General, having been to South Korea, I think I was there in 2005 or 2006, not--I was not in this job, but I visiting my son who was stationed there, that is a special area. And you certainly are at great risk there, all of our service men and women and civilians that are there are certainly at great risk, particularly close in Seoul and on up. So I certainly do appreciate that.    I had the opportunity here just recently to go out. I did not get back out that far, nor did I get to Guam, but I got out to Hawaii and San Diego in regards to visiting our naval forces and some of our Marines that are stationed out there. And I was impressed with, I guess, the leadership.    And, Admiral, I met with you in Hawaii. I was impressed, though, not only with your leadership, but the leadership of those that are in your command, from a destroyer skipper, to an LCS-4 skipper, and others, in regards to how they take their mission and how they accomplish it, and also at the BUD/S [Basic Underwater Demolition/SEAL] training facility in Coronado with our SEALs [Sea, Air, Land]. We have, and we talk about this all the time about equipment, but it is the personnel that man that equipment that makes the difference, I think.    But what I am concerned about as we move forward, and you have talked about it, that we have had to accept more risks and we are concerned about having adequate resources. Could you explain to us, and maybe we can do a better job of explaining this to the American people, first of all, why is the Asia-Pacific area so important to us? And (b), what are the additional risks that we are accepting because of the lack of providing the proper resources?</t>
   </si>
   <si>
@@ -397,9 +358,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    I have a question for Admiral Locklear and General Scaparrotti. When you think about the assessment of the technological imbalance between specifically us and China, and us and North Korea, can you share what your assessment is right now as it concerns cyber and space, those two elements, for each one of you as it relates to China and North Korea?    Admiral Locklear.</t>
   </si>
   <si>
@@ -448,9 +406,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And thank you, Madam Secretary, Admiral, General.    Part of the concerns that I hear, Madam Secretary, about a policy push on the trade Pacific authority, the trade partnership authority and the move to the Pacific is that if you look at history, when Commodore Perry went in and said we are going to open up Tokyo, and did, they immediately adopted our ways. We saw within two generations incredible industrial capability, military doctrine, to the point where they even defeated a world power.    John Hay at the turn of the century then developed an open-door policy with China as a hedge on Japan, almost using the same terms, hegemony. And now we see this push into the Pacific, and while we have had briefings here in the last couple of years with the same talks of how we are going to expand or change our posture or do different things, now it does not seem that the diplomatic or military advances are keeping pace with the trade advances.    Unfortunately, in 15 years we went from ally, making ships, signing naval treaties, to having to melt Japanese out of pillboxes and drop atomic bombs on their cities. I would hope that as we make an advance and a pivot into the Pacific, that we would not make those same policy errors.    My question would really be to the admiral or to the general. Missile defense seems to be the greatest short-term threat that we could possibly face. You have limited AN/TPY-2 [Army Navy/Transportable Radar Surveillance] radars. The funding for those and the building of those does not seem to be a priority, and yet they may be the very things that stand between us and this incredible threat. How is that being addressed?</t>
   </si>
   <si>
@@ -466,9 +421,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you all for your time and your testimony.    General Scaparrotti, I want to talk about the potential impact of divesting in the A-10 and the impact that that is going to have on our capabilities with your mission. And then also, Admiral Locklear, in general in the theater.    The depleted uranium on the 30 millimeter, specifically the antitank capabilities, I know you have shared in your testimony about how North Korea is going more towards asymmetric capabilities, but there is still a very real conventional threat, as you know. And should we have to deal with that, having been a part of units that were supposed to be heading your way to be reinforcements to those that are stationed right there, it is a pretty tight timeline to be able to react in a very short geographic area, as you know.    So gaining and maintaining air superiority and then making sure that we have the anti-armor capability against North Korean capabilities is really important.    So if the President's budget were to be fulfilled and the A-10 would be divested in, you would lose the capability of the depleted uranium, and the A-10 squadron is right there at Osan. What capability gap does that provide for you and what are the plans to fill that gap in order to address this particular threat?    General Scaparrotti. I thank you. As you said, the A-10 was designed for a specific capability and it is very good at that. Being an infantryman, I have high regard for its ability to support ground troops. And in the region that I am in, particularly in mountainous region, it also can get low and it can turn in tight spots.    Having said that, I recognize too the Air Force's difficulty in terms of the funding and the need with an aging aircraft, with reduced funds, to perhaps move away from that and go to a multirole ship. And I have been assured that if the A-10 were to come out there would be a multirole aircraft that would replace that squadron on the peninsula. And I would need that. I would need additional air.</t>
   </si>
   <si>
@@ -493,9 +445,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Forbes.    And thank you to the witnesses for being here today.    Yesterday morning Under Secretary Kendall was sort of a featured speaker at the sea, air, and space gathering over in Virginia, you know, packed room. Talked about a lot of the same issues that are being discussed here, that narrowing gap that, Admiral Locklear, you referred to earlier this morning.    But what is interesting is at the end of his remarks he actually pretty passionately used a pretty good chunk of his time talking about STEM [science, technology, engineering, and mathematics] education in this country as really a critical component of our national security long term, and particularly with the narrowing gap that Admiral Locklear mentioned.    The STEM Education Council, which is a pretty extraordinary coalition of Microsoft, National Association of Manufacturers, you know, all the hard-science professional educators, American Farm Bureau, released a report recently where they talked about 23 percent of the graduate degrees in STEM in the world today are China and 10 percent are the U.S. And that kind of, I think, particularly when we talk about Asia-Pacific and the challenges, and again looking beyond just today's budget year, that point that I think Under Secretary Kendall was making is pretty powerful.    And we talk about sequestration and trying to balance defense and nondefense. I mean the fact is that education is one of those that could ``pay the price,'' quote, unquote, if we just had a sort of lopsided approach to dealing with sequestration. But long term, in terms of our defense, that is just adding to that disparity that is pretty disturbing right now.    So, Ms. Wormuth, then just wonder if you maybe wanted to comment on that, anyone else, about what you see out there in terms of where China's investment in education and the increase in capabilities that we are seeing emerging domestically from their country.</t>
   </si>
   <si>
@@ -512,9 +461,6 @@
   </si>
   <si>
     <t>412564</t>
-  </si>
-  <si>
-    <t>Brad R. Wenstrup</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    We have talked a lot about the region today, and I want to focus a little bit on our allies in the region. And maybe touch on a little bit, if you would, about their efforts of increasing their capabilities, not only in traditional warfare aspects, but, say, cyber and space and how we are coordinating with them, if you would.    General Scaparrotti. Sir, if you would, I will go first with the Republic of Korea. First, overall within their defense budget over the past 4 years or so they have been averaging about 4 to 5 percent increase in their defense budget. This past year it was 2.5 percent of their GDP [gross domestic product], which is very good compared to, say, our NATO [North Atlantic Treaty Organization] allies, et cetera.    And so they have been focused on meeting the capabilities that they need, given the evolving threat in North Korea, but also in order to meet the commitments that we made together as an alliance. An example being the funding of the PAC-3 upgrade and the missiles for those, this year Global Hawk, last year to assist in ISR, an improvement in their C4 systems, command control communications, computers, to enable them as we go to OPCON [operational control] transition, to ensure that they can lead a combined force in a high-intensity conflict.    So overall I think they are focused on that. Within their budget they have the same challenges that we do in terms of the social demand and the competition with defense and the expense of the systems that they have to put in place in order to increase their military's capability and to deal with the threat that is evolving in the north.</t>
@@ -934,11 +880,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -958,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -984,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1010,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1036,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1062,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1090,11 +1024,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1114,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1142,11 +1072,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1166,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1194,11 +1120,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1218,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1246,11 +1168,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1270,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1296,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1322,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1348,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1374,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1400,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1426,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1452,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1478,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1504,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1530,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1556,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1582,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1608,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1634,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1660,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1686,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1712,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1738,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1764,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1790,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1816,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
         <v>51</v>
-      </c>
-      <c r="H36" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1842,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1868,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1894,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1920,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1946,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1972,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1998,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2024,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2050,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2076,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2102,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2128,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2154,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2180,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2206,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2232,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2258,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2284,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2310,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2336,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2362,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2388,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2414,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2440,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2466,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2492,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2518,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2544,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2570,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2596,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2622,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2648,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>86</v>
-      </c>
-      <c r="H68" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2674,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2700,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2726,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2752,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>100</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2778,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2804,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>100</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2830,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2856,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2882,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2908,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2934,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2960,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
-      </c>
-      <c r="G80" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2986,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3012,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3038,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3064,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
-      </c>
-      <c r="G84" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3090,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3116,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>117</v>
-      </c>
-      <c r="G86" t="s">
-        <v>118</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3142,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3168,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>117</v>
-      </c>
-      <c r="G88" t="s">
-        <v>118</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3194,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3220,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3246,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" t="s">
-        <v>118</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3272,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
-      </c>
-      <c r="G92" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3298,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
-      </c>
-      <c r="G93" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3324,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3350,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
-      </c>
-      <c r="G95" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3376,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3402,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>126</v>
-      </c>
-      <c r="G97" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3428,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3454,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>126</v>
-      </c>
-      <c r="G99" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3480,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3506,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>126</v>
-      </c>
-      <c r="G101" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3532,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
-      </c>
-      <c r="G102" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3558,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3584,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
-      </c>
-      <c r="G104" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3610,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3636,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
-      </c>
-      <c r="G106" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
         <v>127</v>
-      </c>
-      <c r="H106" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3662,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
-      </c>
-      <c r="G107" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3688,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
-      </c>
-      <c r="G108" t="s">
-        <v>144</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3714,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3740,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>143</v>
-      </c>
-      <c r="G110" t="s">
-        <v>144</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3766,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3792,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>149</v>
-      </c>
-      <c r="G112" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3818,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>149</v>
-      </c>
-      <c r="G113" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3844,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>149</v>
-      </c>
-      <c r="G114" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3870,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>149</v>
-      </c>
-      <c r="G115" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3896,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3922,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
-      </c>
-      <c r="G117" t="s">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3948,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
-      </c>
-      <c r="G118" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3974,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
-      </c>
-      <c r="G119" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4000,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4026,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4052,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>158</v>
-      </c>
-      <c r="G122" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4078,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
-      </c>
-      <c r="G123" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4104,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>165</v>
-      </c>
-      <c r="G124" t="s">
-        <v>166</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4130,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>165</v>
-      </c>
-      <c r="G125" t="s">
-        <v>166</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4156,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4182,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>165</v>
-      </c>
-      <c r="G127" t="s">
-        <v>166</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4208,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4234,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>165</v>
-      </c>
-      <c r="G129" t="s">
-        <v>166</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4260,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94747.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94747.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman.    And, again, to our panel, thank you for being before us.    Obviously, the Indo-Asia-Pacific arena is an incredibly important one to our United States and to security in our world. I am always a little amused with the fact that everybody talks about pivoting towards that direction. I am a Californian. We have always been on the Pacific.    So, to a large extent we have had the opportunity to look across that Pacific and work with the nations and accept a lot of people who are originally from those countries to our California. So I think that we are well-positioned, in particular, as Californians, with respect to understanding and having ties to those regions.    The collective security of our world is not only one of defense and high-tech solutions to some of that, but it is also about culture and the economy. And so I believe that we should continue to work in the many myriad of ways to--as we look towards that region. Maintaining a significant U.S. military capability advantage is clearly a top priority for us from a national security perspective. And it is entirely appropriate to take a look at the capabilities, especially with high technology that these countries in that region are doing.    Again, we should not presuppose, I think, that there is malice involved when somebody is beefing up their military or working towards higher military capabilities. And we shouldn't, I think, presume that conflict is inevitable. Rather, we should be geared toward working together in good faith of preservation of our international order.    And I think that the most significant thing that Congress can do to help bolster the U.S. military's technological edge and to help advance strategic objectives in the Indo-Asia-Pacific region is to eliminate sequestration. And I am talking not just here in the defense committee, but across the Federal board. As I remember Secretary Gates once said, if we don't educate our people, if our economy is not good--and I am paraphrasing, I am not saying directly--then we don't have to worry about our military because it is about our economy and about our people.    So I am looking forward to hearing the testimony today. And, Mr. Chairman, I would like to submit Mr. Smith's statement for the record. Thank you.    The Chairman. Thank you. Without objection, it is so ordered.    [The prepared statement of Mr. Smith can be found in the Appendix on page 41.]    The Chairman. And without objection, the witnesses' complete written statements will be made part of the record.    We are pleased to have with us today the Honorable Christine Wormuth, Under Secretary of Defense for Policy; Admiral Samuel Locklear, Commander of U.S. Pacific Command; and General Curtis Scaparrotti, the Commander of U.S. Forces Korea.    Again, thank you all for being with us. As I said, your complete statements will be made part of the record. And we would appreciate you summarizing in your opening comments before we turn to questions.    Ms. Wormuth.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Wormuth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Wormuth. Thank you very much, Chairman Thornberry and distinguished members of the committee, for having us here today. We are looking forward to the conversation. And I am sending my best wishes to Ranking Member Smith for a speedy recovery. I know he is not enjoying that process.    The Chairman. Madam, excuse me. Would you mind getting that microphone right in front of you?</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t xml:space="preserve">    Secretary Wormuth. It is a pleasure to be here to talk with you about certainly a top priority for Secretary Carter and myself, which is our rebalance to Asia-Pacific.    I am also very pleased to be here alongside Admiral Locklear and General Scaparrotti. We work closely together on a lot of different issues. They are doing a tremendous job, and the men and women who are out there working in Pacific Command and at U.S. Forces Korea are really the day-to-day face of our rebalance for a lot of countries in the region. So we really appreciate the work that they do.    Both Secretary Carter and I have recently come back from Asia, different parts of the region, but I think we both heard in a very resounding way a lot of support from the countries out there for the rebalance that we have undertaken, and also a lot of desire to have even greater U.S. leadership and engagement with the countries that are there.    In the past 70 years it has obviously been a time of tremendous change and opportunity for the Asia-Pacific region. As nations there rise and become more prosperous it has created a lot of opportunity. At the same time, the dynamism in the region has also created a much more complex security environment in which we are now operating.    In particular, China's very rapid military modernization, its opaque defense budget, the--its actions in space and cyberspace, and its behavior in places like the East and South China Seas raise a number of serious questions for us. Though China's expanding interests are a natural part of its rise, it does continue to pursue activities and to make investments that lead many countries in the region, including the United States, to have some serious questions about its long-term intentions.    China's behavior in the maritime domain, I think, in particular, has created significant friction for its neighbors. The government's efforts to incrementally advance its claims in the East and South China Sea, and its extensive land reclamation activities, particularly the prospect of further militarizing those outposts, are very concerning to us. We have urged China to show restraint and to refrain from further activities that undermine regional trust.    We also have continued to urge China to clarify the meaning of its ambiguous ``nine-dash line'' claim as a starting point as a way to start reducing tensions and provide greater transparency to countries in the region.    While the United States and China are not allies, we also don't have to be adversaries. I think both of us, both the United States and China recognize that a constructive U.S.-China relationship is essential for global peace and prosperity. We are therefore not only talking to China about actions they undertake that concern us, but we are also talking to them and undertaking activities to build transparency and to improve understanding, particularly through our military-to-military engagement with the PLA [People's Liberation Army].    We also face a number of other challenges, obviously, in the region. Particularly I think of greatest concern to us in DOD [Department of Defense] is North Korea's dangerous pursuit of ballistic missiles and its weapons of mass destruction program. North Korea, as you all know, has repeatedly demonstrated its willingness to use provocations as a means to achieve its ends. And just in the last year, we saw a very significant cyber attack on Sony Pictures Entertainment.    There are also other challenges in the region that are magnified by a growing range of nontraditional threats, such as the increased flow of foreign fighters both to and from Asia, the trafficking of illegal goods and people, and devastating natural disasters such as the cyclone we saw last month in Vanuatu.    So in response to these shifting dynamics, DOD has consistently worked to implement President Obama's whole-of-government strategy towards rebalancing in the Asia-Pacific. One of the most important pieces of the administration's work in the area of the rebalance is to finalize the Trans-Pacific Partnership [TPP]. Our military strength ultimately rests on the foundation of our vibrant and growing economy, so we believe strongly that TPP is not just part of our economic agenda, but is also a very important part of our national security agenda. And I would urge Congress to pass Trade Promotion Authority and allow negotiators to conclude this very important agreement.    In DOD, we are really focused in terms of the rebalance on a couple of key lines of effort. First is strengthening our security relationships with allies and partners in the region. In Japan, for example, we are very close to completing a historic update of the defense guidelines, which really wouldn't have been possible a decade ago. We are also working with the Republic of Korea to develop a comprehensive set of alliance capabilities to counter the North Korean threat. And in Australia and the Philippines, last year we signed important, groundbreaking posture agreements that will give us enhanced access for our forces and also allow us a lot of new, combined training opportunities for our partners in Australia and the Philippines.    Our strong friendships in the region also go beyond traditional alliances to some of our new relationships, particularly in South and Southeast Asia. In addition to our very strong partnership with Singapore, where I just visited a couple weeks ago, we also are strengthening our relationships with countries like Indonesia, Malaysia, and Vietnam. And finally, we are investing, of course, in our partnership with ASEAN [Association of Southeast Asian Nations], which is really leading the way in terms of trying to build a more robust security architecture in the region.    And lastly, in terms of relationships, the U.S.-India relationship is a very important and very exciting partnership. As you all know, just this January, President Obama and Prime Minister Modi signed a Joint Vision Statement. We also completed the first update in 10 years to our Defense Framework with India, and we concluded four ``pathfinder'' projects for technology development with India under the Defense Trade and Technology Initiative.    In tandem with our efforts to modernize relationships in the Pacific, the Department is also updating our forward presence. And this isn't just about putting more assets into the region. It is also about using those assets in new ways. For example, we have developed a more distributed model for our Marine Corps that is reducing our concentrated presence in Okinawa through relocating marines to Australia, Guam, Hawaii, and mainland Japan.    The Navy is also working more on its rotational presence concept to include being on track to have our goal of having four Littoral Combat Ships [LCS] rotating through Singapore by 2017. We have had two of our LCS ships go to Singapore already. And the Army will be initiating its first rotational deployment of a brigade combat team to the Korean Peninsula later this spring.    Finally, and I think going very much to the issue of the technology concerns that the committee is interested in, we are also bringing our best capabilities to the Asia-Pacific region. We are making significant investments to sustain our American technological edge into the future in the air, land, sea, and undersea domains. We are investing in precision munitions that will increase our ability to strike adversaries from greater standoff distances and we are working on new capabilities to allow us to continue to operate freely in space and cyberspace.    All of these efforts demonstrate the seriousness of our Department's commitment to protecting U.S. military primacy in the Asia-Pacific theater. And our focus on technology is really the impetus for our Defense Innovation Initiative, which is a long-term, comprehensive effort to make sure that we enhance our military competitive edge even as we face budget constraints.    The Department's rebalance efforts, as well those of our interagency colleagues, are part of a long-term project that reflect, I think, the enduring interest the United States has in the Asia-Pacific region. We look forward to continuing to work with Congress on the rebalance. And I look forward to questions. Thank you.    [The prepared statement of Secretary Wormuth can be found in the Appendix on page 42.]    The Chairman. Thank you.    Admiral.</t>
   </si>
   <si>
+    <t>Locklear</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Locklear. Mr. Chairman, Congresswoman Sanchez, and distinguished members of the committee, thank you for the opportunity to appear before you today with Secretary Wormuth and General Scaparrotti, who I work very closely with both of them. Before we begin I would like to ask that my written testimony be submitted for the record.    For more than 3 years I have had the honor and the privilege of leading the exceptional men and women, military and civilian, of the United States Pacific Command [USPACOM]. These volunteers are skilled professionals dedicated to defense of our Nation. They are serving as superb ambassadors to represent the values and strengths that make our Nation what it is: great. I want to go on record to formally thank our service members, civilians, and their families for their sacrifices.    USPACOM continues to strengthen alliances and partnerships, maintain an assured presence in the region, and demonstrate U.S. intent and resolve to safeguard our U.S. national interest. When I spoke to you last year I highlighted my concern for several issues that could challenge the security environment across the Indo-Asia-Pacific. Those challenges included responding to humanitarian assistance and disaster relief events; dealing with an increasingly dangerous and unpredictable North Korea, a challenge that General Scaparrotti and I remain aligned in addressing; a continued escalation of complex territorial disputes; increasing regional transnational threats; and the complexity associated with China's continuous rise.    In the past years these challenges have not eased. They will not go away soon. But the Asia rebalance strategy is and has taken hold. It is achieving its intended goals.    However, the greatest challenge remains the continued physical uncertainty resulting from sequestration. If the Budget Control Act remains in force, the greatest challenge in the Indo-Asia-Pacific will be dealing with the consequences to the security of our national interest as we respond to a rapidly changing world. I echo the Secretary of Defense, the Chairman of the Joint Chiefs, and the service chiefs' testimony before Congress. Our Nation is being forced into a resource-driven national security strategy instead of one properly resourced and driven by our enduring national interest.    In the Indo-Asia-Pacific we are accepting more risk, not less. Sequestration will force harmful reductions in force size, structure, and readiness that will reduce my ability to manage crisis space and provide options to the President and the Congress, and diminishes United States prestige and credibility in the region and around the globe.    In the last year, at great expense to the readiness of the surge forces' position in the continental United States, USPACOM has maintained its forward forces, focused on protecting the homeland, deterring aggressors, such as North Korea, strengthening alliances and partnerships, and developing the concepts and capabilities required for us to remain dominant in a world that is growing in complexity with threats that continually increase against a seemingly unending stream of constraints.    Without adequate resources, we will be forced to make difficult choices today that will have strategic consequences to our future.    I would like to thank the committee for your continued interest and support. I look forward to your questions.    [The prepared statement of Admiral Locklear can be found in the Appendix on page 49.]    The Chairman. Thank you, sir.    General.    General Scaparrotti. Mr. Chairman, Congresswoman Sanchez, and distinguished members of the committee, I am honored to testify today as the Commander of the United Nations Command, Combined Forces Command, and United States Forces Korea, and also alongside Admiral Locklear and Under Secretary Wormuth. On behalf of the service members, civilians, contractors, and their families who serve our great Nation in the Republic of Korea, one of our most important allies, thank you for your support. I have prepared some brief opening remarks and I thank you for submitting them to the record.    Last year, I testified that the combined and joint forces of the United States and the Republic of Korea were capable and ready to deter, and if necessary, respond to North Korean threats and actions. Due to our accomplishments in 2014, I report to you that our strong alliance is more capable of addressing the rapidly evolving and increasingly asymmetric North Korean threat.    In recent years, North Korea has aggressively developed and utilized asymmetric capabilities, such as cyber warfare, nuclear weapons, and ballistic missiles to advance its interests. To put this in perspective over time, in 2012, my predecessor noted North Korea's advancements in cyber and nuclear capabilities during his opening statement to this committee. A year later, North Korea conducted cyber attacks on South Korea's banks and broadcasting stations. And in 2014, they boldly projected their cyber capabilities against Sony Pictures in the United States, in an effort to inflict economic damage and suppress free speech.    This example represents a trend that is persistent across several North Korean asymmetric capabilities. My top concern is that we will have little to no warning of a North Korean asymmetric provocation, which could start a cycle of action and counteraction, leading to unintended escalation. This underscores the need for the alliance to maintain a high level of readiness and vigilance.    Last year, the alliance took significant steps in improving its capabilities and capacities that deter aggression and to reduce its operational risk. But our work is not done. In 2015, we will maintain this momentum by focusing on my top priority, sustaining and strengthening the alliance, with an emphasis on our combined readiness. This includes ensuring the rapid flow of ready forces into Korea in the early phases of hostilities and improving our ISR [intelligence, surveillance, and reconnaissance] capabilities and critical munitions.    Based on the national security strategies of both our nations, the United States will continue to be a steadfast strategic partner to South Korea, and South Korea is poised to be a long-lasting and important ally to America. Our enduring military partnership in South Korea is the preeminent example of bilateral security cooperation and a visible element of American leadership and our Nation's commitment to the Asia-Pacific region.    The men and women serving on freedom's frontier, defending the Republic of Korea remain thankful for this committee's unwavering support in prioritizing resources that enable us to defend our national interests in Asia, while advancing universal values and international order.    I am extremely proud of our service members, civilians, and their families serving in the Republic of Korea, who never lose sight of the fact that they are at freedom's frontier, defending one of our most important allies and vital American interests.    Thank you, and I look forward to your questions.    [The prepared statement of General Scaparrotti can be found in the Appendix on page 81.]    The Chairman. Thank you.    I want to ask, Admiral and General, each of you, about this issue of technological superiority. I mentioned Under Secretary Kendall has testified that our technological superiority that we have enjoyed for years is eroding, and we have had many other witnesses support that. There are a variety of factors that have played into it, what we have done to ourselves with budget cuts, a procurement process that cannot keep up with changes in technology, the fact that some of our competitors have stolen incredible amounts of information from us and benefitted from it. I mean, all of these things, and probably others, contribute to it.    But, each of you are responsible for dealing with the world today as we find it and being prepared with plans and contingencies and using the forces that we have today. So I would be interested, as a combatant commander, as a commander responsible for a key area of the world, are you concerned about these trends in technology and our ability to keep up? Are there some areas that concern you more than others given your area of responsibility? And are there suggestions you have about how we, the United States, could and should adjust to meet these changes? Kind of a broad picture of what it is like from your end, as warfighting commanders.    Admiral.</t>
   </si>
   <si>
@@ -97,6 +112,12 @@
     <t>400209</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much.    And, I want to--Madam Secretary, I took down some notes, what you had said in your prepared remarks, and also what you said today: We urge the Chinese, actions that concern us, we bring this to the Chinese's attention. I am one of the individuals in the Congress that for years have been speaking out publicly back in my district, the Third District of North Carolina, about the growing debt of our Nation because I believe sincerely that that is the biggest threat to our national security, is the growing debt.    Admiral, that is why we passed the bill--I did not vote for it, to be honest about it--the sequestration.    And then I see we continue to play a shell game with the budget and with the American people's money and find ways to continue to pump up the needs for our military.    I believe in honesty in budgeting. I don't believe in dishonesty, but, anyway, in budgeting. But I am for honesty in budgeting.    This is my question to you. I have long thought, maybe it is because I was raised in eastern North Carolina, that if you owe someone money and you can't pay them back, they just don't have the same respect for you. And I look at the fact that President Bush raised the debt ceiling 7 out of 8 years that he was the President. Mr. Obama has raised the debt ceiling 7 out of 6 years that he has been the President. And you know, when we raise the debt ceiling what we are saying to the world is we can't pay our bills; that we have to sell our financial instruments and somehow finance our debt. Okay.    The Chinese buy a lot of our debt. So I really would like to know, when our representatives of our government, whether it be military or non-military, are sitting there facing the Chinese, if it is a respect, because we continue to have to borrow money from the Chinese to pay our bills. And they see all of the news articles of how we are spending billions and billions in Afghanistan, that much of it, according to John Sopko, is wasted. And yet, we are taking the billions and billions that we are spending overseas that is wasted, taken away from rebuild--from building our military, which needs to be rebuilt.    And I get to a point that I just don't understand an administration--and I would say this if it was a Republican administration--how in the world can we continue to play this game of spending, spending, spending, and borrow, borrow, borrow, and then we think we have got equal placement to talk to the Chinese about we are concerned about this and we urge you to do that. Do they really listen to us?</t>
   </si>
   <si>
@@ -109,6 +130,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses for your testimony today. In particular, Admiral Locklear, I want to thank you for your leadership at PACOM [Pacific Command] for the last 3 years. I thank you for your service and I wish you all the best of luck in your future endeavors.    If I could start with you, Admiral. You mentioned China's aggressive shipbuilding program in addition to their significant advances in electronic warfare capabilities, Admiral. How do our forces in PACOM compare in those aspects? And where do you believe improvements need to be made, besides continued and sustained investment in the U.S. nuclear submarine force, as you mentioned?    I am particularly concerned and interested. I think that the Chinese at this point are--have confidence that they could potentially turn the lights off on our use of cyber capabilities on our fleet and our ability to respond, both figuratively and literally.    So I want to know where you--what your views are and how we stand.</t>
   </si>
   <si>
@@ -130,6 +157,12 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you.    Madam Secretary, General, Admiral, thank you so much for your service to our country. Thank you for being here today.    We have had a couple of milestones in the last few weeks. One, the Japanese have now exceeded the number of planes they have had to scramble against Chinese and Russian planes since the Cold War, as I understand it. We also had the Office of Naval Intelligence print this report, first time they have done it since 2009, talking about a compelling concern about Chinese activity in the disputed waters off the East and South China Sea.    I also concur with your comments about sequestration as it relates to national defense, although I really question anyone on this committee or the administration that would suggest that we shouldn't remove defense sequestration unless we can also give the EPA [Environmental Protection Agency], the IRS [Internal Revenue Service], and the GSA [General Services Administration] all the money they want or unless we can quench the thirst of every other agency that drinks from every Federal trough. To hold defense sequestration hostage against that would be unconscionable.    My concern today as we talked about it, Admiral Locklear, in this committee, we talked about the high-end technological superiority. But I am also concerned about what we are seeing happen at the lower end. You mentioned, I think correctly, China launched more naval ships than any other country in 2013 and 2014, and they expect the same for 2014 and 2015. But I am also concerned about what they are doing with their Coast Guard. They now have 95 large cutters, 110 small cutters. That is a total of 205. That is 68 ships less than the entire U.S. Navy, and they have more ships in their Coast Guard than Japan, Vietnam, Indonesia, Malaysia, and Singapore have combined.    We don't always rate those as naval ships, but you have seen this picture, I am sure. This picture is of a Chinese Coast Guard vessel. They have labeled on here Tugboat number 25. It is painted white. This is one of their amphibious naval ships. It is number 908. It is painted gray. Other than being painted gray and the number on there, there is virtually no difference, I don't think, between these two ships. And that is something that is really concerning me, because we don't always measure those.    [The pictures referred to were not available at the time of printing.]</t>
   </si>
   <si>
@@ -151,6 +184,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    Secretary Wormuth and Admiral Locklear and General Scaparrotti, I want to thank you for coming today.    And as the representative from Guam, I appreciate, Mr. Chairman, your calling the committee together, for taking time to further examine our posture in the Asia-Pacific region.    Admiral Locklear, I have a question for you. As the ranking member of the Readiness Subcommittee, I would like to focus on training capabilities in the Asia-Pacific region. Our Marines in Okinawa have degraded training capabilities, and the Army and the Air Force have significant degradation of training capabilities elsewhere in the region.    Can you comment on how the Department is looking at improving these capabilities? We are moving forward with a live-fire training range on Guam, but what about larger training exercises and the need for improving training capabilities in the Northern Marianas Islands? I think that the committee has questions about the cost, and I understand PACOM has a handle on many of these matters. So could you answer that for me?</t>
   </si>
   <si>
@@ -196,6 +235,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank each of you for being here today.    I just really have been impressed, Ms. Wormuth, your comments.    And, Admiral, I am just grateful that I have a son who is currently serving in the Navy, and I have got three in the Army.    And my visits, General, to the DMZ [demilitarized zone], again, such extraordinary people that you serve with, and making such a difference, indeed, for the Republic of Korea and their protection. And that is why, as I am thinking about the cyber offensive of North Korea, General, how is that being countered, and, with the efforts that they have made to disrupt the banks of South Korea and other activities? How is this being addressed?    General Scaparrotti. Well, sir, I think, first of all, we are working very closely with our allies as a multinational community in this regard. And we have a very good cyber capability in the United States that is growing as well. This is a domain that we don't necessarily have superiority in. I think there is a lot--there is a lot of simultaneity out there in this domain.    So we are working very hard. I think we stayed ahead of it well, but it will take that kind of effort and resourcing in order to continue to develop our capability. That is about what I would say here. It is difficult to get into that much without, you know, in an open hearing.</t>
   </si>
   <si>
@@ -220,6 +265,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    I will continue along the same topic here, and I think it is important for us to recognize that North Korea remains the most immediate military threat, not to only our interests within the region, but really to the U.S. directly, and important for us to focus on this immediate threat, especially within the context of the greater conversation that is taking place now and seeing how we can prevent Iran from getting to the point of having this nuclear capability.    General Scaparrotti, I am wondering if you can speak to Mr. Wilson's question, but also specifically to the status of ballistic missile defense policy within the region and the level of cooperation that you are getting from our partners there, within the Republic of Korea and Japan specifically.    General Scaparrotti. Well, thank you.    First of all, to the North Korean nuclear capability, I would state it this way, that they claim to have a capability to deliver a nuclear-tipped ballistic missile. They have paraded it, they have shown it to us. But they haven't tested it, as the Under Secretary mentioned, and that is very important in something that is as complex as this. But as a commander, I have to be prudent and assume that they can deliver one and act on that basis.    Secondly, in terms of ballistic missile defense, we bring our best systems to the peninsula. We work very closely with the Republic of Korea. This year, just this funding year, they committed in the last couple of months to upgrade their PAC-2 systems to PAC-3, and they will be doing that over the next couple of years, And we are working closely with them over the next year or so to increase our interoperability and the ability to have a common operating picture.    So I think we are moving in the right direction, given the threat. We have to keep pace with that, we have to continue to keep our focus on that.</t>
   </si>
   <si>
@@ -247,6 +298,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    General Scaparrotti, I know that we are in discussions with South Korea's government about the deployment of a THAAD [Terminal High Altitude Area Defense] battery on the peninsula. Can you tell us why that would be important for the protection of our deployed forces in South Korea to have put on that peninsula?    General Scaparrotti. Well, the employment of a THAAD would give us a high-tier defense. And so, therefore rather--we would have a layered defense and those systems would enhance the capability of our present Patriot systems that are on the peninsula today.</t>
   </si>
   <si>
@@ -286,6 +343,9 @@
     <t xml:space="preserve">    Mr. Forbes. The gentleman yields back.    The gentleman from Hawaii, Mr. Takai, is recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Takai</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman. Thank you also for focusing today's hearing on the Asia-Pacific as you know, that is very important for people from Hawaii.    I wanted to welcome our witnesses. Under Secretary, Admiral, and General, thank you very much for coming.    Admiral Locklear, it is my understanding that the Pacific Fleet and the Atlantic Fleet are funded through separate budget offices. Can you speak to what advantages that has and how it supports the geographical combatant commander?</t>
   </si>
   <si>
@@ -313,6 +373,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Ms. Wormuth, my question is for the admiral and general, but I would like to say I am interested in any language suggestions that would cut this ridiculous appeals process that I think is one of the problems with us fielding the equipment. And some of these games that get played, if you will, from the people who are purchasing the equipment from--that slow down our ability to field the equipment I think is one of the reasons that the other countries are able to catch us, if you will. They don't have to deal with that bureaucratic process. And that is a pretty simple thing I think we could put an end to that would help national security.    Gentlemen, I represent Robins Air Force Base and the airmen and the women that fly and operate the JSTARS [Joint Surveillance Target Attack Radar System] aircraft. Last year we had worked with the Air Force, there was a proposal to retire six of the E-8, since you know they are old aircraft, with old technology, and to begin the recapitalization of a new plane with a more modern radar that would give you more information.    There was a proposal for a business class jet. I understand there has been a new analysis, a demand from the combat commanders, a decision is made to keep the entire fleet operational at this point. I would like for you to speak to the value of the JSTARS, how it benefits each of your missions.    And then the Air Force's analysis of the alternatives for the JSTARS and the recapitalization concluded that a manned aircraft was necessary and absolutely essential. And the Korea Command and Pacific Command both have benefitted from this manned platform and the on-board battle management provided by the JSTARS. And can you discuss the extent to which your command's ISRs or requirements are being met?    General Scaparrotti. Yes, sir. Thank you for that question.    My top priority in terms of my requirements and requests through Department of Defense has been ISR. And specifically that aircraft, the JSTARS, is one that I need greater capability in terms of JSTARS, primarily because it provides us the MTI, Movement Target Indicator, and it allows us to queue, my other assets. So it doesn't work alone, it works in tandem with the other assets that are airborne. And I could use more than I have today.    I appreciate the fact that the Air Force, because of the budgeting, needs to get a newer aircraft, but I appreciate the fact that they are retaining what we have, because even the loss of hours of the one that I have today would make a difference in my indicators and warnings on the peninsula.</t>
   </si>
   <si>
@@ -334,6 +400,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And I want to thank our panel for being here today.    And, General, having been to South Korea, I think I was there in 2005 or 2006, not--I was not in this job, but I visiting my son who was stationed there, that is a special area. And you certainly are at great risk there, all of our service men and women and civilians that are there are certainly at great risk, particularly close in Seoul and on up. So I certainly do appreciate that.    I had the opportunity here just recently to go out. I did not get back out that far, nor did I get to Guam, but I got out to Hawaii and San Diego in regards to visiting our naval forces and some of our Marines that are stationed out there. And I was impressed with, I guess, the leadership.    And, Admiral, I met with you in Hawaii. I was impressed, though, not only with your leadership, but the leadership of those that are in your command, from a destroyer skipper, to an LCS-4 skipper, and others, in regards to how they take their mission and how they accomplish it, and also at the BUD/S [Basic Underwater Demolition/SEAL] training facility in Coronado with our SEALs [Sea, Air, Land]. We have, and we talk about this all the time about equipment, but it is the personnel that man that equipment that makes the difference, I think.    But what I am concerned about as we move forward, and you have talked about it, that we have had to accept more risks and we are concerned about having adequate resources. Could you explain to us, and maybe we can do a better job of explaining this to the American people, first of all, why is the Asia-Pacific area so important to us? And (b), what are the additional risks that we are accepting because of the lack of providing the proper resources?</t>
   </si>
   <si>
@@ -358,6 +430,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    I have a question for Admiral Locklear and General Scaparrotti. When you think about the assessment of the technological imbalance between specifically us and China, and us and North Korea, can you share what your assessment is right now as it concerns cyber and space, those two elements, for each one of you as it relates to China and North Korea?    Admiral Locklear.</t>
   </si>
   <si>
@@ -406,6 +484,12 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And thank you, Madam Secretary, Admiral, General.    Part of the concerns that I hear, Madam Secretary, about a policy push on the trade Pacific authority, the trade partnership authority and the move to the Pacific is that if you look at history, when Commodore Perry went in and said we are going to open up Tokyo, and did, they immediately adopted our ways. We saw within two generations incredible industrial capability, military doctrine, to the point where they even defeated a world power.    John Hay at the turn of the century then developed an open-door policy with China as a hedge on Japan, almost using the same terms, hegemony. And now we see this push into the Pacific, and while we have had briefings here in the last couple of years with the same talks of how we are going to expand or change our posture or do different things, now it does not seem that the diplomatic or military advances are keeping pace with the trade advances.    Unfortunately, in 15 years we went from ally, making ships, signing naval treaties, to having to melt Japanese out of pillboxes and drop atomic bombs on their cities. I would hope that as we make an advance and a pivot into the Pacific, that we would not make those same policy errors.    My question would really be to the admiral or to the general. Missile defense seems to be the greatest short-term threat that we could possibly face. You have limited AN/TPY-2 [Army Navy/Transportable Radar Surveillance] radars. The funding for those and the building of those does not seem to be a priority, and yet they may be the very things that stand between us and this incredible threat. How is that being addressed?</t>
   </si>
   <si>
@@ -421,6 +505,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you all for your time and your testimony.    General Scaparrotti, I want to talk about the potential impact of divesting in the A-10 and the impact that that is going to have on our capabilities with your mission. And then also, Admiral Locklear, in general in the theater.    The depleted uranium on the 30 millimeter, specifically the antitank capabilities, I know you have shared in your testimony about how North Korea is going more towards asymmetric capabilities, but there is still a very real conventional threat, as you know. And should we have to deal with that, having been a part of units that were supposed to be heading your way to be reinforcements to those that are stationed right there, it is a pretty tight timeline to be able to react in a very short geographic area, as you know.    So gaining and maintaining air superiority and then making sure that we have the anti-armor capability against North Korean capabilities is really important.    So if the President's budget were to be fulfilled and the A-10 would be divested in, you would lose the capability of the depleted uranium, and the A-10 squadron is right there at Osan. What capability gap does that provide for you and what are the plans to fill that gap in order to address this particular threat?    General Scaparrotti. I thank you. As you said, the A-10 was designed for a specific capability and it is very good at that. Being an infantryman, I have high regard for its ability to support ground troops. And in the region that I am in, particularly in mountainous region, it also can get low and it can turn in tight spots.    Having said that, I recognize too the Air Force's difficulty in terms of the funding and the need with an aging aircraft, with reduced funds, to perhaps move away from that and go to a multirole ship. And I have been assured that if the A-10 were to come out there would be a multirole aircraft that would replace that squadron on the peninsula. And I would need that. I would need additional air.</t>
   </si>
   <si>
@@ -445,6 +535,9 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Forbes.    And thank you to the witnesses for being here today.    Yesterday morning Under Secretary Kendall was sort of a featured speaker at the sea, air, and space gathering over in Virginia, you know, packed room. Talked about a lot of the same issues that are being discussed here, that narrowing gap that, Admiral Locklear, you referred to earlier this morning.    But what is interesting is at the end of his remarks he actually pretty passionately used a pretty good chunk of his time talking about STEM [science, technology, engineering, and mathematics] education in this country as really a critical component of our national security long term, and particularly with the narrowing gap that Admiral Locklear mentioned.    The STEM Education Council, which is a pretty extraordinary coalition of Microsoft, National Association of Manufacturers, you know, all the hard-science professional educators, American Farm Bureau, released a report recently where they talked about 23 percent of the graduate degrees in STEM in the world today are China and 10 percent are the U.S. And that kind of, I think, particularly when we talk about Asia-Pacific and the challenges, and again looking beyond just today's budget year, that point that I think Under Secretary Kendall was making is pretty powerful.    And we talk about sequestration and trying to balance defense and nondefense. I mean the fact is that education is one of those that could ``pay the price,'' quote, unquote, if we just had a sort of lopsided approach to dealing with sequestration. But long term, in terms of our defense, that is just adding to that disparity that is pretty disturbing right now.    So, Ms. Wormuth, then just wonder if you maybe wanted to comment on that, anyone else, about what you see out there in terms of where China's investment in education and the increase in capabilities that we are seeing emerging domestically from their country.</t>
   </si>
   <si>
@@ -461,6 +554,12 @@
   </si>
   <si>
     <t>412564</t>
+  </si>
+  <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    We have talked a lot about the region today, and I want to focus a little bit on our allies in the region. And maybe touch on a little bit, if you would, about their efforts of increasing their capabilities, not only in traditional warfare aspects, but, say, cyber and space and how we are coordinating with them, if you would.    General Scaparrotti. Sir, if you would, I will go first with the Republic of Korea. First, overall within their defense budget over the past 4 years or so they have been averaging about 4 to 5 percent increase in their defense budget. This past year it was 2.5 percent of their GDP [gross domestic product], which is very good compared to, say, our NATO [North Atlantic Treaty Organization] allies, et cetera.    And so they have been focused on meeting the capabilities that they need, given the evolving threat in North Korea, but also in order to meet the commitments that we made together as an alliance. An example being the funding of the PAC-3 upgrade and the missiles for those, this year Global Hawk, last year to assist in ISR, an improvement in their C4 systems, command control communications, computers, to enable them as we go to OPCON [operational control] transition, to ensure that they can lead a combined force in a high-intensity conflict.    So overall I think they are focused on that. Within their budget they have the same challenges that we do in terms of the social demand and the competition with defense and the expense of the systems that they have to put in place in order to increase their military's capability and to deal with the threat that is evolving in the north.</t>
@@ -830,7 +929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +937,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,3101 +959,3649 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
       <c r="H42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
       <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
       <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
       <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>94</v>
+      </c>
       <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
       <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G62" t="s">
+        <v>94</v>
+      </c>
       <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G64" t="s">
+        <v>94</v>
+      </c>
       <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
       <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
       <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
+      </c>
       <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
+        <v>47</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>109</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G80" t="s">
+        <v>119</v>
+      </c>
       <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G82" t="s">
+        <v>119</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
       <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G85" t="s">
+        <v>47</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G86" t="s">
+        <v>128</v>
+      </c>
       <c r="H86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G88" t="s">
+        <v>128</v>
+      </c>
       <c r="H88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G91" t="s">
+        <v>128</v>
+      </c>
       <c r="H91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G92" t="s">
+        <v>47</v>
+      </c>
       <c r="H92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G93" t="s">
+        <v>138</v>
+      </c>
       <c r="H93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G95" t="s">
+        <v>138</v>
+      </c>
       <c r="H95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G97" t="s">
+        <v>138</v>
+      </c>
       <c r="H97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G99" t="s">
+        <v>138</v>
+      </c>
       <c r="H99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G101" t="s">
+        <v>138</v>
+      </c>
       <c r="H101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G102" t="s">
+        <v>138</v>
+      </c>
       <c r="H102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G104" t="s">
+        <v>138</v>
+      </c>
       <c r="H104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G106" t="s">
+        <v>138</v>
+      </c>
       <c r="H106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G107" t="s">
+        <v>47</v>
+      </c>
       <c r="H107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G108" t="s">
+        <v>156</v>
+      </c>
       <c r="H108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G110" t="s">
+        <v>156</v>
+      </c>
       <c r="H110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G111" t="s">
+        <v>47</v>
+      </c>
       <c r="H111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G112" t="s">
+        <v>163</v>
+      </c>
       <c r="H112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G113" t="s">
+        <v>163</v>
+      </c>
       <c r="H113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G114" t="s">
+        <v>163</v>
+      </c>
       <c r="H114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G115" t="s">
+        <v>163</v>
+      </c>
       <c r="H115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>134</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G117" t="s">
+        <v>163</v>
+      </c>
       <c r="H117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G118" t="s">
+        <v>47</v>
+      </c>
       <c r="H118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>142</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G119" t="s">
+        <v>173</v>
+      </c>
       <c r="H119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G122" t="s">
+        <v>173</v>
+      </c>
       <c r="H122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G123" t="s">
+        <v>47</v>
+      </c>
       <c r="H123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G124" t="s">
+        <v>180</v>
+      </c>
       <c r="H124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G125" t="s">
+        <v>180</v>
+      </c>
       <c r="H125" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I125" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G127" t="s">
+        <v>180</v>
+      </c>
       <c r="H127" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>148</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G129" t="s">
+        <v>180</v>
+      </c>
       <c r="H129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G130" t="s">
+        <v>47</v>
+      </c>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>48</v>
+      </c>
+      <c r="I130" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94747.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94747.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400356</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sanchez</t>
@@ -929,7 +935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,7 +943,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,3646 +968,3936 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I60" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G62" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>109</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>109</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>109</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G86" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G88" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I91" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I92" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G93" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I93" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G95" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I95" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G97" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G99" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G102" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G104" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G106" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I107" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G108" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G110" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I110" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G112" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I112" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G113" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I113" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G114" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I114" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G115" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I115" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>21</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G117" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I117" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I118" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G119" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="I119" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J119" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>23</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G122" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="I122" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I123" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G124" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I124" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J124" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G125" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I125" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G127" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I127" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J127" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>23</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G129" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I129" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I130" t="s">
-        <v>188</v>
+        <v>50</v>
+      </c>
+      <c r="J130" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
